--- a/data/trans_orig/P14B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A037122C-7959-4320-A14C-7BD97506F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3801A445-E047-44D9-8093-8A6590E32703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F8D2C78-8F85-4D2A-B146-D42C3A1ECE71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{781C981E-BB48-433E-84F3-FE036B6216FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
   <si>
     <t>Población cuyo estreñimiento crónico le limita en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -105,16 +105,16 @@
     <t>11,2%</t>
   </si>
   <si>
-    <t>35,33%</t>
+    <t>32,33%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>51,74%</t>
@@ -123,16 +123,16 @@
     <t>88,8%</t>
   </si>
   <si>
-    <t>64,67%</t>
+    <t>67,67%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -144,19 +144,19 @@
     <t>31,55%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -165,19 +165,19 @@
     <t>68,45%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -189,19 +189,19 @@
     <t>29,79%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>30,41%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>66,74%</t>
@@ -210,19 +210,19 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>69,59%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -234,292 +234,298 @@
     <t>49,51%</t>
   </si>
   <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AEBA1B-A7BE-4E77-929A-956803A1EB5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCE9685-7030-4FF9-ACFC-FAB6477A0AEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1988,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E70ECF-937B-4593-8CD9-AAAE8EAC2175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ED5F9F-B12E-4CF4-8AB8-FD46728130CE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2747,13 +2753,13 @@
         <v>5379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2762,13 +2768,13 @@
         <v>6281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,10 +2789,10 @@
         <v>3876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2798,13 +2804,13 @@
         <v>19142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2813,13 +2819,13 @@
         <v>23017</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2893,13 @@
         <v>2600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2902,13 +2908,13 @@
         <v>15417</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2917,13 +2923,13 @@
         <v>18017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2944,13 @@
         <v>13962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2953,13 +2959,13 @@
         <v>43714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -2968,13 +2974,13 @@
         <v>57676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3801A445-E047-44D9-8093-8A6590E32703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4E75E5-12B4-4523-85E5-E8222A33954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{781C981E-BB48-433E-84F3-FE036B6216FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B70E7389-5A17-4917-BB9C-002DEFB618D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>48,26%</t>
@@ -105,16 +105,16 @@
     <t>11,2%</t>
   </si>
   <si>
-    <t>32,33%</t>
+    <t>36,04%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>51,74%</t>
@@ -123,19 +123,19 @@
     <t>88,8%</t>
   </si>
   <si>
-    <t>67,67%</t>
+    <t>63,96%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -144,19 +144,19 @@
     <t>31,55%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -165,22 +165,22 @@
     <t>68,45%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>33,26%</t>
@@ -189,19 +189,19 @@
     <t>29,79%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>30,41%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>66,74%</t>
@@ -210,19 +210,19 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>69,59%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -234,19 +234,19 @@
     <t>49,51%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -255,73 +255,73 @@
     <t>50,49%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población cuyo estreñimiento crónico le limita en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -333,199 +333,199 @@
     <t>28,2%</t>
   </si>
   <si>
-    <t>72,98%</t>
+    <t>73,46%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>27,02%</t>
+    <t>26,54%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>49,17%</t>
+    <t>47,22%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>46,43%</t>
+    <t>45,79%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>50,83%</t>
+    <t>52,78%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>53,57%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>82,75%</t>
+    <t>83,05%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>66,69%</t>
+    <t>66,37%</t>
   </si>
   <si>
     <t>66,6%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>16,95%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>33,31%</t>
+    <t>33,63%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>78,6%</t>
+    <t>74,92%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>21,4%</t>
+    <t>25,08%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCE9685-7030-4FF9-ACFC-FAB6477A0AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FF55AE-C0A9-447E-8745-9AA22305336C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1994,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ED5F9F-B12E-4CF4-8AB8-FD46728130CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F42D109-A636-40F5-AD02-6B1C8C70B174}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
